--- a/data/trans_orig/P14A08-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A08-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F4B76BB-C202-43C2-B4F8-5F633ECB59DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BA8DB12-E60A-425F-A490-23FED86A18F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{647AC29D-A46B-4C22-B114-00031367149F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3292D2C7-3FA6-4CDD-9F06-EA3FDF3965DE}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="153">
   <si>
     <t>Población que recibe medicación o terapia por enfermedad crónica de pulmón en 2012 (Tasa respuesta: 1,61%)</t>
   </si>
@@ -111,43 +111,43 @@
     <t>90,67%</t>
   </si>
   <si>
-    <t>71,7%</t>
+    <t>71,91%</t>
   </si>
   <si>
     <t>88,59%</t>
   </si>
   <si>
-    <t>49,61%</t>
+    <t>48,8%</t>
   </si>
   <si>
     <t>90,07%</t>
   </si>
   <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
   </si>
   <si>
     <t>9,33%</t>
   </si>
   <si>
-    <t>28,3%</t>
+    <t>28,09%</t>
   </si>
   <si>
     <t>11,41%</t>
   </si>
   <si>
-    <t>50,39%</t>
+    <t>51,2%</t>
   </si>
   <si>
     <t>9,93%</t>
   </si>
   <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -156,10 +156,10 @@
     <t>78,45%</t>
   </si>
   <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
   </si>
   <si>
     <t>81,26%</t>
@@ -168,19 +168,19 @@
     <t>85,42%</t>
   </si>
   <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
   </si>
   <si>
     <t>21,55%</t>
   </si>
   <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -189,10 +189,10 @@
     <t>14,58%</t>
   </si>
   <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -204,13 +204,13 @@
     <t>87,35%</t>
   </si>
   <si>
-    <t>45,91%</t>
+    <t>45,77%</t>
   </si>
   <si>
     <t>95,71%</t>
   </si>
   <si>
-    <t>76,23%</t>
+    <t>81,34%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -219,13 +219,13 @@
     <t>12,65%</t>
   </si>
   <si>
-    <t>54,09%</t>
+    <t>54,23%</t>
   </si>
   <si>
     <t>4,29%</t>
   </si>
   <si>
-    <t>23,77%</t>
+    <t>18,66%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -237,13 +237,13 @@
     <t>83,66%</t>
   </si>
   <si>
-    <t>51,29%</t>
+    <t>57,75%</t>
   </si>
   <si>
     <t>92,73%</t>
   </si>
   <si>
-    <t>76,41%</t>
+    <t>74,35%</t>
   </si>
   <si>
     <t>11,83%</t>
@@ -252,67 +252,67 @@
     <t>16,34%</t>
   </si>
   <si>
-    <t>48,71%</t>
+    <t>42,25%</t>
   </si>
   <si>
     <t>7,27%</t>
   </si>
   <si>
-    <t>23,59%</t>
+    <t>25,65%</t>
   </si>
   <si>
     <t>91,36%</t>
   </si>
   <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
   </si>
   <si>
     <t>90,45%</t>
   </si>
   <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
   </si>
   <si>
     <t>91,03%</t>
   </si>
   <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
   </si>
   <si>
     <t>8,64%</t>
   </si>
   <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
   </si>
   <si>
     <t>9,55%</t>
   </si>
   <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
   </si>
   <si>
     <t>8,97%</t>
   </si>
   <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -336,7 +336,7 @@
     <t>94,77%</t>
   </si>
   <si>
-    <t>77,64%</t>
+    <t>77,92%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -351,7 +351,7 @@
     <t>5,23%</t>
   </si>
   <si>
-    <t>22,36%</t>
+    <t>22,08%</t>
   </si>
   <si>
     <t>94,55%</t>
@@ -363,58 +363,58 @@
     <t>71,76%</t>
   </si>
   <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
   </si>
   <si>
     <t>92,62%</t>
   </si>
   <si>
-    <t>67,12%</t>
+    <t>63,29%</t>
   </si>
   <si>
     <t>82,79%</t>
   </si>
   <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
   </si>
   <si>
     <t>28,24%</t>
   </si>
   <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
   </si>
   <si>
     <t>7,38%</t>
   </si>
   <si>
-    <t>32,88%</t>
+    <t>36,71%</t>
   </si>
   <si>
     <t>17,21%</t>
   </si>
   <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
   </si>
   <si>
     <t>87,37%</t>
   </si>
   <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
   </si>
   <si>
     <t>76,75%</t>
@@ -423,16 +423,19 @@
     <t>90,6%</t>
   </si>
   <si>
-    <t>74,5%</t>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
   </si>
   <si>
     <t>12,63%</t>
   </si>
   <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -441,55 +444,58 @@
     <t>9,4%</t>
   </si>
   <si>
-    <t>25,5%</t>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
   </si>
   <si>
     <t>90,44%</t>
   </si>
   <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
   </si>
   <si>
     <t>95,74%</t>
   </si>
   <si>
-    <t>86,67%</t>
+    <t>86,97%</t>
   </si>
   <si>
     <t>92,59%</t>
   </si>
   <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
   </si>
   <si>
     <t>9,56%</t>
   </si>
   <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
   </si>
   <si>
     <t>4,26%</t>
   </si>
   <si>
-    <t>13,33%</t>
+    <t>13,03%</t>
   </si>
   <si>
     <t>7,41%</t>
   </si>
   <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
   </si>
 </sst>
 </file>
@@ -901,7 +907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E804F04-B00B-4900-85D1-6E434D874E54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BD151C-D4D2-4529-AED9-867CC6472CEF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1964,7 +1970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8796280F-2A59-4483-ACCA-25C4055B3772}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4982608A-ECDB-435F-A3B8-FFDAEDC3892D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2738,7 +2744,7 @@
         <v>128</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2753,13 +2759,13 @@
         <v>2854</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2774,7 +2780,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -2783,13 +2789,13 @@
         <v>2854</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>17</v>
+        <v>135</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2857,13 +2863,13 @@
         <v>60122</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H19" s="7">
         <v>39</v>
@@ -2872,10 +2878,10 @@
         <v>43581</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>11</v>
@@ -2884,16 +2890,16 @@
         <v>99</v>
       </c>
       <c r="N19" s="7">
-        <v>103703</v>
+        <v>103704</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2908,13 +2914,13 @@
         <v>6358</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -2923,13 +2929,13 @@
         <v>1938</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -2938,13 +2944,13 @@
         <v>8296</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2986,7 +2992,7 @@
         <v>107</v>
       </c>
       <c r="N21" s="7">
-        <v>111999</v>
+        <v>112000</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>13</v>

--- a/data/trans_orig/P14A08-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A08-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BA8DB12-E60A-425F-A490-23FED86A18F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC2B187C-5371-4177-9765-56B9E9BF0C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3292D2C7-3FA6-4CDD-9F06-EA3FDF3965DE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D594C4B3-D5DE-457D-9528-63BC1C81C62E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -105,61 +105,61 @@
     <t>30,57%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>90,67%</t>
   </si>
   <si>
-    <t>71,91%</t>
+    <t>70,29%</t>
   </si>
   <si>
     <t>88,59%</t>
   </si>
   <si>
-    <t>48,8%</t>
+    <t>40,48%</t>
   </si>
   <si>
     <t>90,07%</t>
   </si>
   <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
   </si>
   <si>
     <t>9,33%</t>
   </si>
   <si>
-    <t>28,09%</t>
+    <t>29,71%</t>
   </si>
   <si>
     <t>11,41%</t>
   </si>
   <si>
-    <t>51,2%</t>
+    <t>59,52%</t>
   </si>
   <si>
     <t>9,93%</t>
   </si>
   <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>78,45%</t>
   </si>
   <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
   </si>
   <si>
     <t>81,26%</t>
@@ -168,19 +168,19 @@
     <t>85,42%</t>
   </si>
   <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
   </si>
   <si>
     <t>21,55%</t>
   </si>
   <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -189,13 +189,13 @@
     <t>14,58%</t>
   </si>
   <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>86,51%</t>
@@ -204,13 +204,13 @@
     <t>87,35%</t>
   </si>
   <si>
-    <t>45,77%</t>
+    <t>45,85%</t>
   </si>
   <si>
     <t>95,71%</t>
   </si>
   <si>
-    <t>81,34%</t>
+    <t>75,21%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -219,13 +219,13 @@
     <t>12,65%</t>
   </si>
   <si>
-    <t>54,23%</t>
+    <t>54,15%</t>
   </si>
   <si>
     <t>4,29%</t>
   </si>
   <si>
-    <t>18,66%</t>
+    <t>24,79%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -237,13 +237,13 @@
     <t>83,66%</t>
   </si>
   <si>
-    <t>57,75%</t>
+    <t>50,54%</t>
   </si>
   <si>
     <t>92,73%</t>
   </si>
   <si>
-    <t>74,35%</t>
+    <t>76,51%</t>
   </si>
   <si>
     <t>11,83%</t>
@@ -252,73 +252,73 @@
     <t>16,34%</t>
   </si>
   <si>
-    <t>42,25%</t>
+    <t>49,46%</t>
   </si>
   <si>
     <t>7,27%</t>
   </si>
   <si>
-    <t>25,65%</t>
+    <t>23,49%</t>
   </si>
   <si>
     <t>91,36%</t>
   </si>
   <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
   </si>
   <si>
     <t>90,45%</t>
   </si>
   <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
   </si>
   <si>
     <t>91,03%</t>
   </si>
   <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
   </si>
   <si>
     <t>8,64%</t>
   </si>
   <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
   </si>
   <si>
     <t>9,55%</t>
   </si>
   <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
   </si>
   <si>
     <t>8,97%</t>
   </si>
   <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por enfermedad crónica de pulmón en 2015 (Tasa respuesta: 1,63%)</t>
+    <t>Población que recibe medicación o terapia por enfermedad crónica de pulmón en 2016 (Tasa respuesta: 1,63%)</t>
   </si>
   <si>
     <t>—%</t>
@@ -330,13 +330,13 @@
     <t>90,47%</t>
   </si>
   <si>
-    <t>49,72%</t>
+    <t>58,18%</t>
   </si>
   <si>
     <t>94,77%</t>
   </si>
   <si>
-    <t>77,92%</t>
+    <t>77,29%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -345,13 +345,13 @@
     <t>9,53%</t>
   </si>
   <si>
-    <t>50,28%</t>
+    <t>41,82%</t>
   </si>
   <si>
     <t>5,23%</t>
   </si>
   <si>
-    <t>22,08%</t>
+    <t>22,71%</t>
   </si>
   <si>
     <t>94,55%</t>
@@ -363,58 +363,58 @@
     <t>71,76%</t>
   </si>
   <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
   </si>
   <si>
     <t>92,62%</t>
   </si>
   <si>
-    <t>63,29%</t>
+    <t>67,96%</t>
   </si>
   <si>
     <t>82,79%</t>
   </si>
   <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
   </si>
   <si>
     <t>28,24%</t>
   </si>
   <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
   </si>
   <si>
     <t>7,38%</t>
   </si>
   <si>
-    <t>36,71%</t>
+    <t>32,04%</t>
   </si>
   <si>
     <t>17,21%</t>
   </si>
   <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
   </si>
   <si>
     <t>87,37%</t>
   </si>
   <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
   </si>
   <si>
     <t>76,75%</t>
@@ -423,19 +423,19 @@
     <t>90,6%</t>
   </si>
   <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
   </si>
   <si>
     <t>12,63%</t>
   </si>
   <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -444,58 +444,58 @@
     <t>9,4%</t>
   </si>
   <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
   </si>
   <si>
     <t>90,44%</t>
   </si>
   <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
   </si>
   <si>
     <t>95,74%</t>
   </si>
   <si>
-    <t>86,97%</t>
+    <t>86,52%</t>
   </si>
   <si>
     <t>92,59%</t>
   </si>
   <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
   </si>
   <si>
     <t>9,56%</t>
   </si>
   <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
   </si>
   <si>
     <t>4,26%</t>
   </si>
   <si>
-    <t>13,03%</t>
+    <t>13,48%</t>
   </si>
   <si>
     <t>7,41%</t>
   </si>
   <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
   </si>
 </sst>
 </file>
@@ -907,7 +907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BD151C-D4D2-4529-AED9-867CC6472CEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373C77B6-FDF8-46E9-AE37-C8B444C65B55}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1970,7 +1970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4982608A-ECDB-435F-A3B8-FFDAEDC3892D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB4E206-44B7-48C8-A06B-A91B4AA639EF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2890,7 +2890,7 @@
         <v>99</v>
       </c>
       <c r="N19" s="7">
-        <v>103704</v>
+        <v>103703</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>142</v>
@@ -2992,7 +2992,7 @@
         <v>107</v>
       </c>
       <c r="N21" s="7">
-        <v>112000</v>
+        <v>111999</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>13</v>
